--- a/UPDATED_INCOME_TABLE.xlsx
+++ b/UPDATED_INCOME_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reedweiler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD24B22B-F832-3742-8E3F-484E09FE82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DCCE09-9B12-3C4C-B667-3BEF185EA7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13360" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="9" r:id="rId1"/>
@@ -592,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,6 +739,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3834,7 +3837,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A1:J50" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A1:J44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C08979AD-DA83-48E4-B77E-DF51E41E07A1}" name="Column1" headerRowDxfId="106" dataDxfId="105"/>
     <tableColumn id="9" xr3:uid="{45D11B2F-A65F-4C4B-BAD7-3F8A365C86E4}" name="Column9" headerRowDxfId="104" dataDxfId="103"/>
@@ -4235,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678FFBD8-FCDA-461A-92AF-BFE35DD65F49}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4251,1603 +4254,1812 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B1" s="21">
-        <v>-6.2</v>
+        <v>-3.2</v>
       </c>
       <c r="C1" s="21">
-        <v>-13.2</v>
+        <v>-2.6</v>
       </c>
       <c r="D1" s="10">
         <v>-32.799999999999997</v>
       </c>
       <c r="E1" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="10">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="G1" s="10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H1" s="10">
-        <v>5.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I1" s="21">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="J1" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="21">
-        <v>-1.1000000000000001</v>
+        <v>-6</v>
       </c>
       <c r="C2" s="21">
-        <v>3.1</v>
+        <v>-5</v>
       </c>
       <c r="D2" s="10">
-        <v>-31.8</v>
+        <v>-36.5</v>
       </c>
       <c r="E2" s="10">
-        <v>37.200000000000003</v>
+        <v>27.6</v>
       </c>
       <c r="F2" s="10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="10">
-        <v>1.3</v>
+        <v>-4.5</v>
       </c>
       <c r="H2" s="10">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="I2" s="21">
-        <v>1.7</v>
+        <v>-0.6</v>
       </c>
       <c r="J2" s="11">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B3" s="21">
-        <v>-3.7</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="21">
-        <v>-7.3</v>
+        <v>7.5</v>
       </c>
       <c r="D3" s="10">
-        <v>-31.1</v>
+        <v>-31.3</v>
       </c>
       <c r="E3" s="10">
-        <v>35.200000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="F3" s="10">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="10">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="10">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="I3" s="21">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J3" s="11">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B4" s="21">
-        <v>-2.1</v>
+        <v>-1.6</v>
       </c>
       <c r="C4" s="21">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D4" s="10">
-        <v>-36.1</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="E4" s="10">
-        <v>40</v>
+        <v>38.1</v>
       </c>
       <c r="F4" s="10">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="G4" s="10">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="H4" s="10">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="I4" s="21">
-        <v>-3.3</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="11">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B5" s="21">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="C5" s="21">
-        <v>-7.5</v>
+        <v>-1.6</v>
       </c>
       <c r="D5" s="10">
-        <v>-29.4</v>
+        <v>-31.4</v>
       </c>
       <c r="E5" s="10">
-        <v>31.6</v>
+        <v>33.6</v>
       </c>
       <c r="F5" s="10">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="G5" s="10">
-        <v>-2.9</v>
+        <v>11.7</v>
       </c>
       <c r="H5" s="10">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="I5" s="21">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="J5" s="11">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B6" s="21">
-        <v>-4.2</v>
+        <v>-3</v>
       </c>
       <c r="C6" s="21">
-        <v>-6.9</v>
+        <v>-2.9</v>
       </c>
       <c r="D6" s="10">
-        <v>-35.9</v>
+        <v>-31</v>
       </c>
       <c r="E6" s="10">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F6" s="10">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="G6" s="10">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H6" s="10">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="I6" s="21">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J6" s="11">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B7" s="21">
-        <v>-3.4</v>
+        <v>-6.2</v>
       </c>
       <c r="C7" s="21">
-        <v>-12</v>
+        <v>-13.2</v>
       </c>
       <c r="D7" s="10">
-        <v>-25</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="E7" s="10">
-        <v>27.1</v>
+        <v>33</v>
       </c>
       <c r="F7" s="10">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="G7" s="10">
-        <v>-3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H7" s="10">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="I7" s="21">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J7" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="21">
-        <v>-4.5</v>
+        <v>-3.4</v>
       </c>
       <c r="C8" s="21">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="D8" s="10">
-        <v>-29.5</v>
+        <v>-25</v>
       </c>
       <c r="E8" s="10">
-        <v>27.8</v>
+        <v>27.1</v>
       </c>
       <c r="F8" s="10">
-        <v>4.2</v>
+        <v>8.1</v>
       </c>
       <c r="G8" s="10">
-        <v>8.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H8" s="10">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="I8" s="21">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="J8" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B9" s="21">
-        <v>-4.5999999999999996</v>
+        <v>-2.8</v>
       </c>
       <c r="C9" s="21">
-        <v>-8.3000000000000007</v>
+        <v>-1.7</v>
       </c>
       <c r="D9" s="10">
-        <v>-33.1</v>
+        <v>-31.1</v>
       </c>
       <c r="E9" s="10">
-        <v>33.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="F9" s="10">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="G9" s="10">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="H9" s="10">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I9" s="21">
         <v>3.7</v>
       </c>
       <c r="J9" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B10" s="21">
-        <v>-5</v>
+        <v>-3.9</v>
       </c>
       <c r="C10" s="21">
-        <v>-16.3</v>
+        <v>-6.2</v>
       </c>
       <c r="D10" s="10">
-        <v>-25.6</v>
+        <v>-30</v>
       </c>
       <c r="E10" s="10">
-        <v>28.9</v>
+        <v>30.4</v>
       </c>
       <c r="F10" s="10">
-        <v>6.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G10" s="10">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H10" s="10">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="21">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="J10" s="11">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B11" s="21">
-        <v>-4.5</v>
+        <v>-10.8</v>
       </c>
       <c r="C11" s="21">
-        <v>-9.1</v>
+        <v>-26.9</v>
       </c>
       <c r="D11" s="10">
-        <v>-32.4</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E11" s="10">
-        <v>34.799999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="F11" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G11" s="10">
         <v>5.2</v>
       </c>
-      <c r="G11" s="10">
-        <v>3</v>
-      </c>
       <c r="H11" s="10">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="I11" s="21">
-        <v>2.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="J11" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B12" s="21">
-        <v>-5.0999999999999996</v>
+        <v>-0.3</v>
       </c>
       <c r="C12" s="21">
-        <v>-10.199999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="D12" s="10">
-        <v>-31.5</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="E12" s="10">
-        <v>32.9</v>
+        <v>38.6</v>
       </c>
       <c r="F12" s="10">
-        <v>5.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12" s="10">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="H12" s="10">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="I12" s="21">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="11">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B13" s="21">
-        <v>-2.5</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="C13" s="21">
-        <v>-1.8</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="D13" s="10">
-        <v>-34.4</v>
+        <v>-31.5</v>
       </c>
       <c r="E13" s="10">
-        <v>43.1</v>
+        <v>32.9</v>
       </c>
       <c r="F13" s="10">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="G13" s="10">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="H13" s="10">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="I13" s="21">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="J13" s="11">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B14" s="21">
-        <v>-4.5999999999999996</v>
+        <v>-2.5</v>
       </c>
       <c r="C14" s="21">
-        <v>-9.9</v>
+        <v>-1.8</v>
       </c>
       <c r="D14" s="10">
-        <v>-32.299999999999997</v>
+        <v>-34.4</v>
       </c>
       <c r="E14" s="10">
-        <v>39.799999999999997</v>
+        <v>43.1</v>
       </c>
       <c r="F14" s="10">
         <v>5</v>
       </c>
       <c r="G14" s="10">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="H14" s="10">
-        <v>8.3000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="I14" s="21">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="21">
-        <v>-3.5</v>
+        <v>-2</v>
       </c>
       <c r="C15" s="21">
-        <v>-5.8</v>
+        <v>-8.1</v>
       </c>
       <c r="D15" s="10">
-        <v>-32</v>
+        <v>-28.5</v>
       </c>
       <c r="E15" s="10">
-        <v>35.700000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="F15" s="10">
-        <v>5.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G15" s="10">
-        <v>3.5</v>
+        <v>8.6</v>
       </c>
       <c r="H15" s="10">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="I15" s="21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="11">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B16" s="21">
-        <v>-4</v>
+        <v>-2.1</v>
       </c>
       <c r="C16" s="21">
-        <v>-6.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D16" s="10">
         <v>-33</v>
       </c>
       <c r="E16" s="10">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F16" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="I16" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="J16" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="21">
+        <v>-3</v>
+      </c>
+      <c r="C17" s="21">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-32.6</v>
+      </c>
+      <c r="E17" s="10">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="I17" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="21">
+        <v>-5.8</v>
+      </c>
+      <c r="C18" s="21">
+        <v>-11.5</v>
+      </c>
+      <c r="D18" s="10">
+        <v>-33.6</v>
+      </c>
+      <c r="E18" s="10">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4</v>
+      </c>
+      <c r="I18" s="21">
+        <v>-2.7</v>
+      </c>
+      <c r="J18" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C19" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-31.8</v>
+      </c>
+      <c r="E19" s="10">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="J19" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="21">
+        <v>-4.5</v>
+      </c>
+      <c r="C20" s="21">
+        <v>-7</v>
+      </c>
+      <c r="D20" s="10">
+        <v>-29.5</v>
+      </c>
+      <c r="E20" s="10">
+        <v>27.8</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="G20" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="H20" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="54">
+        <v>24</v>
+      </c>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="21">
+        <v>-3.7</v>
+      </c>
+      <c r="C21" s="21">
+        <v>-7.3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>-31.1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>8</v>
+      </c>
+      <c r="I21" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="J21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="21">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="C22" s="21">
+        <v>-9.9</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="E22" s="10">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="H22" s="10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I22" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="J22" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="21">
+        <v>-4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>-6.9</v>
+      </c>
+      <c r="D23" s="10">
+        <v>-30.7</v>
+      </c>
+      <c r="E23" s="10">
+        <v>33.9</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="H23" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="J23" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="21">
+        <v>-1.8</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="E24" s="10">
+        <v>43.1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="21">
+        <v>-2.8</v>
+      </c>
+      <c r="C25" s="21">
+        <v>-3</v>
+      </c>
+      <c r="D25" s="10">
+        <v>-31</v>
+      </c>
+      <c r="E25" s="10">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F25" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="G25" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="H25" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="J25" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="21">
+        <v>-1.3</v>
+      </c>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10">
+        <v>-31.9</v>
+      </c>
+      <c r="E26" s="10">
+        <v>30.8</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="H26" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="21">
+        <v>-0.6</v>
+      </c>
+      <c r="J26" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="D27" s="10">
+        <v>-30.8</v>
+      </c>
+      <c r="E27" s="10">
+        <v>37.1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G27" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="21">
+        <v>-7.4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>-6.1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>-45.8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I28" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="J28" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="21">
+        <v>-2.1</v>
+      </c>
+      <c r="C29" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>-36.1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>40</v>
+      </c>
+      <c r="F29" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="I29" s="21">
+        <v>-3.3</v>
+      </c>
+      <c r="J29" s="54">
+        <v>49</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="21">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="C30" s="21">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="D30" s="10">
+        <v>-33.1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F30" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G30" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="H30" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="I30" s="21">
+        <v>3.7</v>
+      </c>
+      <c r="J30" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="21">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C31" s="21">
+        <v>-3.5</v>
+      </c>
+      <c r="D31" s="10">
+        <v>-30</v>
+      </c>
+      <c r="E31" s="10">
+        <v>30.8</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H31" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="I31" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="J31" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="21">
+        <v>-5</v>
+      </c>
+      <c r="C32" s="21">
+        <v>-16.3</v>
+      </c>
+      <c r="D32" s="10">
+        <v>-25.6</v>
+      </c>
+      <c r="E32" s="10">
+        <v>28.9</v>
+      </c>
+      <c r="F32" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="G32" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="I32" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J32" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="21">
+        <v>-2.9</v>
+      </c>
+      <c r="C33" s="21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-32.5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G33" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="H33" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="I33" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="J33" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21">
+        <v>-3</v>
+      </c>
+      <c r="C34" s="21">
+        <v>-11</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-22.9</v>
+      </c>
+      <c r="E34" s="10">
+        <v>26.9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G34" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="I34" s="21">
+        <v>-3.3</v>
+      </c>
+      <c r="J34" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="21">
+        <v>-3.5</v>
+      </c>
+      <c r="C35" s="21">
+        <v>-5.8</v>
+      </c>
+      <c r="D35" s="10">
+        <v>-32</v>
+      </c>
+      <c r="E35" s="10">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F35" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G35" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="H35" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J35" s="54">
+        <v>31</v>
+      </c>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="21">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="C36" s="21">
+        <v>-12.2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E36" s="10">
         <v>38.799999999999997</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F36" s="10">
+        <v>5</v>
+      </c>
+      <c r="G36" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="H36" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="I36" s="21">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="21">
+        <v>-3</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-33</v>
+      </c>
+      <c r="E37" s="10">
+        <v>35.9</v>
+      </c>
+      <c r="F37" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G37" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="H37" s="10">
+        <v>6</v>
+      </c>
+      <c r="I37" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="J37" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="21">
+        <v>-4.5</v>
+      </c>
+      <c r="C38" s="21">
+        <v>-9.1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-32.4</v>
+      </c>
+      <c r="E38" s="10">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3</v>
+      </c>
+      <c r="H38" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="I38" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J38" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="21">
+        <v>-3.4</v>
+      </c>
+      <c r="C39" s="21">
+        <v>-7.5</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-29.4</v>
+      </c>
+      <c r="E39" s="10">
+        <v>31.6</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="G39" s="10">
+        <v>-2.9</v>
+      </c>
+      <c r="H39" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="I39" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="21">
+        <v>-1.9</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-32.4</v>
+      </c>
+      <c r="E40" s="10">
+        <v>39.1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G40" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H40" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="I40" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="J40" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>15.7</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-33.5</v>
+      </c>
+      <c r="E41" s="10">
+        <v>33.1</v>
+      </c>
+      <c r="F41" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="G41" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="H41" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="I41" s="21">
+        <v>-0.8</v>
+      </c>
+      <c r="J41" s="54">
+        <v>45</v>
+      </c>
+      <c r="K41" s="19"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="21">
+        <v>-3.9</v>
+      </c>
+      <c r="C42" s="21">
+        <v>-1.9</v>
+      </c>
+      <c r="D42" s="10">
+        <v>-42.5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="F42" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="G42" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="H42" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="I42" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="J42" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="21">
+        <v>-2.9</v>
+      </c>
+      <c r="C43" s="21">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-31.9</v>
+      </c>
+      <c r="E43" s="10">
+        <v>35.6</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="H43" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="I43" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="J43" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-30.1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>30.8</v>
+      </c>
+      <c r="F44" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="G44" s="10">
+        <v>4</v>
+      </c>
+      <c r="H44" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="I44" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="J44" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="21">
+        <v>-4.2</v>
+      </c>
+      <c r="C45" s="21">
+        <v>-6.9</v>
+      </c>
+      <c r="D45" s="10">
+        <v>-35.9</v>
+      </c>
+      <c r="E45" s="10">
+        <v>43</v>
+      </c>
+      <c r="F45" s="10">
         <v>3.6</v>
       </c>
-      <c r="G16" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="I16" s="21">
-        <v>-0.2</v>
-      </c>
-      <c r="J16" s="11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="21">
-        <v>-2</v>
-      </c>
-      <c r="C17" s="21">
-        <v>-8.1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>-28.5</v>
-      </c>
-      <c r="E17" s="10">
-        <v>38.1</v>
-      </c>
-      <c r="F17" s="10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G17" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="H17" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="I17" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="21">
-        <v>-2.1</v>
-      </c>
-      <c r="C18" s="21">
-        <v>-0.8</v>
-      </c>
-      <c r="D18" s="10">
-        <v>-33</v>
-      </c>
-      <c r="E18" s="10">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F18" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="G18" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="I18" s="21">
-        <v>-0.3</v>
-      </c>
-      <c r="J18" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="21">
-        <v>-4</v>
-      </c>
-      <c r="C19" s="21">
-        <v>-6.9</v>
-      </c>
-      <c r="D19" s="10">
-        <v>-30.7</v>
-      </c>
-      <c r="E19" s="10">
-        <v>33.9</v>
-      </c>
-      <c r="F19" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="G19" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G45" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H45" s="10">
         <v>6.5</v>
       </c>
-      <c r="I19" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="J19" s="11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="21">
-        <v>-2.8</v>
-      </c>
-      <c r="C20" s="21">
-        <v>-3</v>
-      </c>
-      <c r="D20" s="10">
-        <v>-31</v>
-      </c>
-      <c r="E20" s="10">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="H20" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="I20" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="J20" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1.9</v>
-      </c>
-      <c r="D21" s="10">
-        <v>-30.8</v>
-      </c>
-      <c r="E21" s="10">
-        <v>37.1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>11.8</v>
-      </c>
-      <c r="G21" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="J21" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="21">
-        <v>-3</v>
-      </c>
-      <c r="C22" s="21">
-        <v>-11</v>
-      </c>
-      <c r="D22" s="10">
-        <v>-22.9</v>
-      </c>
-      <c r="E22" s="10">
-        <v>26.9</v>
-      </c>
-      <c r="F22" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G22" s="10">
-        <v>10.1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="I22" s="21">
-        <v>-3.3</v>
-      </c>
-      <c r="J22" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="21">
-        <v>15.7</v>
-      </c>
-      <c r="D23" s="10">
-        <v>-33.5</v>
-      </c>
-      <c r="E23" s="10">
-        <v>33.1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5.9</v>
-      </c>
-      <c r="G23" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="H23" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="I23" s="21">
-        <v>-0.8</v>
-      </c>
-      <c r="J23" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="21">
-        <v>-3.2</v>
-      </c>
-      <c r="C24" s="21">
-        <v>-2.6</v>
-      </c>
-      <c r="D24" s="10">
-        <v>-32.799999999999997</v>
-      </c>
-      <c r="E24" s="10">
-        <v>36</v>
-      </c>
-      <c r="F24" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="G24" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="H24" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="J24" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="21">
-        <v>-1.6</v>
-      </c>
-      <c r="C25" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="D25" s="10">
-        <v>-33.200000000000003</v>
-      </c>
-      <c r="E25" s="10">
-        <v>38.1</v>
-      </c>
-      <c r="F25" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="G25" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="H25" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="J25" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="I45" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="J45" s="11">
         <v>35</v>
       </c>
-      <c r="B26" s="21">
-        <v>-2.8</v>
-      </c>
-      <c r="C26" s="21">
-        <v>-1.7</v>
-      </c>
-      <c r="D26" s="10">
-        <v>-31.1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>32.6</v>
-      </c>
-      <c r="F26" s="10">
-        <v>3.4</v>
-      </c>
-      <c r="G26" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="H26" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="I26" s="21">
-        <v>3.7</v>
-      </c>
-      <c r="J26" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="21">
-        <v>-3.9</v>
-      </c>
-      <c r="C27" s="21">
-        <v>-6.2</v>
-      </c>
-      <c r="D27" s="10">
-        <v>-30</v>
-      </c>
-      <c r="E27" s="10">
-        <v>30.4</v>
-      </c>
-      <c r="F27" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G27" s="10">
-        <v>6.9</v>
-      </c>
-      <c r="H27" s="10">
-        <v>6</v>
-      </c>
-      <c r="I27" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="J27" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="21">
-        <v>-3</v>
-      </c>
-      <c r="C28" s="21">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D28" s="10">
-        <v>-32.6</v>
-      </c>
-      <c r="E28" s="10">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F28" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="G28" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="H28" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="I28" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J28" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="21">
-        <v>-5.8</v>
-      </c>
-      <c r="C29" s="21">
-        <v>-11.5</v>
-      </c>
-      <c r="D29" s="10">
-        <v>-33.6</v>
-      </c>
-      <c r="E29" s="10">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="F29" s="10">
-        <v>3.1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="H29" s="10">
-        <v>4</v>
-      </c>
-      <c r="I29" s="21">
-        <v>-2.7</v>
-      </c>
-      <c r="J29" s="11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="21">
-        <v>-1.8</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="D30" s="10">
-        <v>-35.700000000000003</v>
-      </c>
-      <c r="E30" s="10">
-        <v>43.1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>5</v>
-      </c>
-      <c r="G30" s="10">
-        <v>2</v>
-      </c>
-      <c r="H30" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="I30" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="J30" s="11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="21">
-        <v>-2.9</v>
-      </c>
-      <c r="C31" s="21">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D31" s="10">
-        <v>-32.5</v>
-      </c>
-      <c r="E31" s="10">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F31" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="G31" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="H31" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="I31" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="J31" s="11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="21">
-        <v>-1.9</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D32" s="10">
-        <v>-32.4</v>
-      </c>
-      <c r="E32" s="10">
-        <v>39.1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G32" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H32" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="I32" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="J32" s="11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="21">
-        <v>-3.9</v>
-      </c>
-      <c r="C33" s="21">
-        <v>-1.9</v>
-      </c>
-      <c r="D33" s="10">
-        <v>-42.5</v>
-      </c>
-      <c r="E33" s="10">
-        <v>51.2</v>
-      </c>
-      <c r="F33" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="G33" s="10">
-        <v>13.4</v>
-      </c>
-      <c r="H33" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="I33" s="21">
-        <v>3.1</v>
-      </c>
-      <c r="J33" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" s="21">
-        <v>-2.8</v>
-      </c>
-      <c r="C34" s="21">
-        <v>-2.9</v>
-      </c>
-      <c r="D34" s="10">
-        <v>-28.6</v>
-      </c>
-      <c r="E34" s="10">
-        <v>29.2</v>
-      </c>
-      <c r="F34" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="H34" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="I34" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="J34" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="21">
-        <v>-3.9</v>
-      </c>
-      <c r="C35" s="21">
-        <v>-10.6</v>
-      </c>
-      <c r="D35" s="10">
-        <v>-30.3</v>
-      </c>
-      <c r="E35" s="10">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F35" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H35" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="I35" s="21">
-        <v>-0.6</v>
-      </c>
-      <c r="J35" s="11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="21">
-        <v>-1</v>
-      </c>
-      <c r="C36" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="D36" s="10">
-        <v>-31.3</v>
-      </c>
-      <c r="E36" s="10">
-        <v>32.5</v>
-      </c>
-      <c r="F36" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="H36" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="I36" s="21">
-        <v>3.2</v>
-      </c>
-      <c r="J36" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="21">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C37" s="21">
-        <v>-3.5</v>
-      </c>
-      <c r="D37" s="10">
-        <v>-30</v>
-      </c>
-      <c r="E37" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="F37" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="H37" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="I37" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="J37" s="11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="21">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="C38" s="21">
-        <v>-12.2</v>
-      </c>
-      <c r="D38" s="10">
-        <v>-36.299999999999997</v>
-      </c>
-      <c r="E38" s="10">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="F38" s="10">
-        <v>5</v>
-      </c>
-      <c r="G38" s="10">
-        <v>-0.4</v>
-      </c>
-      <c r="H38" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="I38" s="21">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="21">
-        <v>-2.9</v>
-      </c>
-      <c r="C39" s="21">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D39" s="10">
-        <v>-31.9</v>
-      </c>
-      <c r="E39" s="10">
-        <v>35.6</v>
-      </c>
-      <c r="F39" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="G39" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="H39" s="10">
-        <v>6.4</v>
-      </c>
-      <c r="I39" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="J39" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="21">
-        <v>-3</v>
-      </c>
-      <c r="C40" s="21">
-        <v>-2.9</v>
-      </c>
-      <c r="D40" s="10">
-        <v>-31</v>
-      </c>
-      <c r="E40" s="10">
-        <v>29</v>
-      </c>
-      <c r="F40" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="G40" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="H40" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="I40" s="21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J40" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="21">
-        <v>-0.3</v>
-      </c>
-      <c r="C41" s="21">
-        <v>14.6</v>
-      </c>
-      <c r="D41" s="10">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="E41" s="10">
-        <v>38.6</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G41" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="H41" s="10">
-        <v>4</v>
-      </c>
-      <c r="I41" s="21">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="21">
-        <v>-1.3</v>
-      </c>
-      <c r="C42" s="21">
-        <v>8</v>
-      </c>
-      <c r="D42" s="10">
-        <v>-31.9</v>
-      </c>
-      <c r="E42" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="F42" s="10">
-        <v>2</v>
-      </c>
-      <c r="G42" s="10">
-        <v>11.2</v>
-      </c>
-      <c r="H42" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="I42" s="21">
-        <v>-0.6</v>
-      </c>
-      <c r="J42" s="11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="21">
-        <v>12.5</v>
-      </c>
-      <c r="D43" s="10">
-        <v>-30.1</v>
-      </c>
-      <c r="E43" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="F43" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="G43" s="10">
-        <v>4</v>
-      </c>
-      <c r="H43" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="I43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="J43" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="21">
-        <v>-6.1</v>
-      </c>
-      <c r="C44" s="21">
-        <v>-9.1</v>
-      </c>
-      <c r="D44" s="10">
-        <v>-35.4</v>
-      </c>
-      <c r="E44" s="10">
-        <v>28.9</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="G44" s="10">
-        <v>3.7</v>
-      </c>
-      <c r="H44" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I44" s="21">
-        <v>-1.5</v>
-      </c>
-      <c r="J44" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="21">
-        <v>-6</v>
-      </c>
-      <c r="C45" s="21">
-        <v>-5</v>
-      </c>
-      <c r="D45" s="10">
-        <v>-36.5</v>
-      </c>
-      <c r="E45" s="10">
-        <v>27.6</v>
-      </c>
-      <c r="F45" s="10">
-        <v>4</v>
-      </c>
-      <c r="G45" s="10">
-        <v>-4.5</v>
-      </c>
-      <c r="H45" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="I45" s="21">
-        <v>-0.6</v>
-      </c>
-      <c r="J45" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="B46" s="21">
         <v>-2.8</v>
       </c>
       <c r="C46" s="21">
-        <v>-1.6</v>
+        <v>-2.9</v>
       </c>
       <c r="D46" s="10">
-        <v>-31.4</v>
+        <v>-28.6</v>
       </c>
       <c r="E46" s="10">
-        <v>33.6</v>
+        <v>29.2</v>
       </c>
       <c r="F46" s="10">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="G46" s="10">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H46" s="10">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="I46" s="21">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J46" s="11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B47" s="21">
-        <v>-10.8</v>
+        <v>-0.6</v>
       </c>
       <c r="C47" s="21">
-        <v>-26.9</v>
+        <v>4.2</v>
       </c>
       <c r="D47" s="10">
-        <v>-35.700000000000003</v>
+        <v>-27.2</v>
       </c>
       <c r="E47" s="10">
-        <v>34.5</v>
+        <v>30.8</v>
       </c>
       <c r="F47" s="10">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="G47" s="10">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="H47" s="10">
-        <v>8.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I47" s="21">
-        <v>6</v>
-      </c>
-      <c r="J47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.7</v>
+      </c>
+      <c r="J47" s="54">
+        <v>13</v>
+      </c>
+      <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B48" s="21">
-        <v>-7.4</v>
+        <v>-3.9</v>
       </c>
       <c r="C48" s="21">
-        <v>-6.1</v>
+        <v>-10.6</v>
       </c>
       <c r="D48" s="10">
-        <v>-45.8</v>
+        <v>-30.3</v>
       </c>
       <c r="E48" s="10">
-        <v>45.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F48" s="10">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G48" s="10">
-        <v>6.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H48" s="10">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="I48" s="21">
-        <v>2.6</v>
+        <v>-0.6</v>
       </c>
       <c r="J48" s="11">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B49" s="21">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C49" s="21">
-        <v>0.1</v>
+        <v>-6.2</v>
       </c>
       <c r="D49" s="10">
         <v>-33</v>
       </c>
       <c r="E49" s="10">
-        <v>35.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F49" s="10">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G49" s="10">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="H49" s="10">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I49" s="21">
-        <v>3.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J49" s="11">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B50" s="21">
-        <v>-0.6</v>
+        <v>-6.1</v>
       </c>
       <c r="C50" s="21">
-        <v>4.2</v>
+        <v>-9.1</v>
       </c>
       <c r="D50" s="10">
-        <v>-27.2</v>
+        <v>-35.4</v>
       </c>
       <c r="E50" s="10">
-        <v>30.8</v>
+        <v>28.9</v>
       </c>
       <c r="F50" s="10">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="G50" s="10">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="H50" s="10">
-        <v>8.1999999999999993</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I50" s="21">
-        <v>2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="J50" s="11">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="8"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
